--- a/MISTDO.Web/wwwroot/ExportCertificate.xlsx
+++ b/MISTDO.Web/wwwroot/ExportCertificate.xlsx
@@ -32,22 +32,22 @@
     <t>Training Center Name</t>
   </si>
   <si>
-    <t>omolola gabriel</t>
+    <t>omobolale oladele</t>
   </si>
   <si>
-    <t>a@a.com</t>
+    <t>r@d.com</t>
   </si>
   <si>
-    <t>AA14M</t>
+    <t>MISTDO/SD-HSE101/2019/1HS6R</t>
   </si>
   <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>2/7/2019 2:47:54 PM</t>
+    <t>3/21/2019 2:00:19 PM</t>
   </si>
   <si>
-    <t>wragby training</t>
+    <t xml:space="preserve">Jardel Energy </t>
   </si>
 </sst>
 </file>
